--- a/working/fritz 2006/dry.biomass.xlsx
+++ b/working/fritz 2006/dry.biomass.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorjaelliott/Desktop/Repositories/LCAdata/working/fritz 2006/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D51ABB-5AA9-AA48-A572-6ABFA262CD63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F07C1E9-E82E-B140-B244-9CC22BD90E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="2740" windowWidth="23220" windowHeight="14300" xr2:uid="{4B3CCBB0-56AB-C346-A61B-986C001C7D78}"/>
+    <workbookView xWindow="5580" yWindow="2500" windowWidth="23220" windowHeight="14300" xr2:uid="{4B3CCBB0-56AB-C346-A61B-986C001C7D78}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,16 +84,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -123,7 +115,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +433,13 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -459,7 +454,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
